--- a/Yearly-Report-2022-RO345879.xlsx
+++ b/Yearly-Report-2022-RO345879.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhashimk\Documents\UiPath\Generate Yearly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7870D36-6F4F-4B04-81A3-5502003FF729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894596A2-CA9F-419C-B0D3-209555C3CBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33870" yWindow="2790" windowWidth="21600" windowHeight="11235" xr2:uid="{78E4EC96-57A6-44EA-8066-7323F6065141}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{78E4EC96-57A6-44EA-8066-7323F6065141}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,140 +470,140 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>726600</v>
+        <v>497314</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>277854</v>
+        <v>190541</v>
       </c>
       <c r="D2">
-        <v>55570.8</v>
+        <v>38108.199999999997</v>
       </c>
       <c r="E2">
-        <v>333425</v>
+        <v>228649</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1">
-        <v>42758</v>
+        <v>43023</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>284109</v>
+        <v>985979</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>74559</v>
+        <v>176481</v>
       </c>
       <c r="D3">
-        <v>14911.8</v>
+        <v>35296.199999999997</v>
       </c>
       <c r="E3">
-        <v>89470.8</v>
+        <v>211777</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
-        <v>42760</v>
+        <v>43043</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>726600</v>
+        <v>744929</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>277854</v>
+        <v>251867</v>
       </c>
       <c r="D4">
-        <v>55570.8</v>
+        <v>50373.4</v>
       </c>
       <c r="E4">
-        <v>333425</v>
+        <v>302240</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1">
-        <v>42758</v>
+        <v>43045</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>284109</v>
+        <v>413969</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>74559</v>
+        <v>278732</v>
       </c>
       <c r="D5">
-        <v>14911.8</v>
+        <v>55746.400000000001</v>
       </c>
       <c r="E5">
-        <v>89470.8</v>
+        <v>334478</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1">
-        <v>42760</v>
+        <v>43095</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>974306</v>
+        <v>623429</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>90390</v>
+        <v>98233</v>
       </c>
       <c r="D6">
-        <v>18078</v>
+        <v>19646.599999999999</v>
       </c>
       <c r="E6">
-        <v>108468</v>
+        <v>117880</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1">
-        <v>43025</v>
+        <v>42785</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>120538</v>
+        <v>989448</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>18505</v>
+        <v>239891</v>
       </c>
       <c r="D7">
-        <v>3701</v>
+        <v>47978.2</v>
       </c>
       <c r="E7">
-        <v>22206</v>
+        <v>287869</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>43028</v>
+        <v>42808</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
